--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>822.1763898425762</v>
+        <v>1095.53119853518</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.007999897003173828</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.903456838924119e-06</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.84392883905826</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.08514149930804</v>
+        <v>7.819745991152481</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.237602502814244</v>
+        <v>7.805446816166261</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>744.6000000000117</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58000000000001</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.61595173195241</v>
+        <v>22.44825517873883</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.07354493653835</v>
+        <v>19.28956874289246</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>34.77463816779881</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>40.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.66154480832267</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>202.8800000000005</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>217.1050000000004</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>220.4700000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>229.3700000000004</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.2350000000004</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8750000000012</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>275.5050000000012</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>277.4750000000012</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>283.2300000000012</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>277.2150000000012</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.3699999999998</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.1349999999998</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.8349999999998</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.8949999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.9649999999998</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8750000000012</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>275.5050000000012</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>277.4750000000012</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>283.2300000000012</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>277.2150000000012</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>58.87500000000119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>75.50500000000119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77.47500000000116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>83.23000000000116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>77.21500000000117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
